--- a/acidentes.xlsx
+++ b/acidentes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fatecspgov-my.sharepoint.com/personal/lucas_antunes9_fatec_sp_gov_br/Documents/3º SEM/Estatística/Python-Para-Estatistica/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="818" documentId="8_{28C05B8C-BE18-4999-865F-F5D223233F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7910EBEB-C64E-4F0D-83BF-1398DB18D3A0}"/>
+  <xr:revisionPtr revIDLastSave="845" documentId="8_{28C05B8C-BE18-4999-865F-F5D223233F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC731A90-4FE4-46E1-917E-D8D70BC3EC61}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EC01A4C9-2F2A-4B49-98FC-64588541817D}"/>
   </bookViews>
@@ -36,51 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Acidentes</t>
-  </si>
-  <si>
-    <t>Média</t>
-  </si>
-  <si>
-    <t>Erro padrão</t>
-  </si>
-  <si>
-    <t>Mediana</t>
-  </si>
-  <si>
-    <t>Modo</t>
-  </si>
-  <si>
-    <t>Desvio padrão</t>
-  </si>
-  <si>
-    <t>Variância da amostra</t>
-  </si>
-  <si>
-    <t>Curtose</t>
-  </si>
-  <si>
-    <t>Assimetria</t>
-  </si>
-  <si>
-    <t>Intervalo</t>
-  </si>
-  <si>
-    <t>Mínimo</t>
-  </si>
-  <si>
-    <t>Máximo</t>
-  </si>
-  <si>
-    <t>Soma</t>
-  </si>
-  <si>
-    <t>Contagem</t>
-  </si>
-  <si>
-    <t>Nível de confiança(95,0%)</t>
   </si>
 </sst>
 </file>
@@ -118,7 +76,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -126,37 +84,20 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55173142-D45C-4035-88FB-F7C3E10E4217}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -506,141 +447,115 @@
     <col min="2" max="2" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3"/>
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
-        <v>2.6428571428571428</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
-        <v>0.3075450982232204</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1.1507283885330299</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1.3241758241758237</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-0.13189417287142957</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0.47597491100562184</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="1">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.66441079065021602</v>
-      </c>
+      <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -655,17 +570,17 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -675,31 +590,16 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31">
         <v>5</v>
       </c>
     </row>
